--- a/test_videos_with_labels/done/GX010093_labels.xlsx
+++ b/test_videos_with_labels/done/GX010093_labels.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_video_results_augmented_mobile\tests\GX010093\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Programmierung\Master\Machine Vision\Computer-Robot_Vision_repo\test_videos_with_labels\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22573435-5E7E-4406-8AB2-BD3CFC6723C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773038CE-D5AC-42CB-8668-AFB1550E35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="38400" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
+    <workbookView xWindow="38400" yWindow="2250" windowWidth="14400" windowHeight="15600" xr2:uid="{6DB90D85-1B51-425A-BF9E-F1B146275295}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -389,11 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2589" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2597" sqref="C2597"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="220" zoomScaleNormal="220" workbookViewId="1">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="BQ88" sqref="BP88:BQ89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21587,7 +21583,7 @@
         <v>2580</v>
       </c>
       <c r="B2581" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.25">
@@ -21595,7 +21591,7 @@
         <v>2581</v>
       </c>
       <c r="B2582" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2583" spans="1:2" x14ac:dyDescent="0.25">
@@ -21603,7 +21599,7 @@
         <v>2582</v>
       </c>
       <c r="B2583" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2584" spans="1:2" x14ac:dyDescent="0.25">
@@ -21611,7 +21607,7 @@
         <v>2583</v>
       </c>
       <c r="B2584" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2585" spans="1:2" x14ac:dyDescent="0.25">
@@ -21619,7 +21615,7 @@
         <v>2584</v>
       </c>
       <c r="B2585" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.25">
@@ -21627,7 +21623,7 @@
         <v>2585</v>
       </c>
       <c r="B2586" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -21635,7 +21631,7 @@
         <v>2586</v>
       </c>
       <c r="B2587" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2588" spans="1:2" x14ac:dyDescent="0.25">
@@ -21643,7 +21639,7 @@
         <v>2587</v>
       </c>
       <c r="B2588" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2589" spans="1:2" x14ac:dyDescent="0.25">
@@ -21651,7 +21647,7 @@
         <v>2588</v>
       </c>
       <c r="B2589" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2590" spans="1:2" x14ac:dyDescent="0.25">
@@ -21659,7 +21655,7 @@
         <v>2589</v>
       </c>
       <c r="B2590" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2591" spans="1:2" x14ac:dyDescent="0.25">
@@ -21667,7 +21663,7 @@
         <v>2590</v>
       </c>
       <c r="B2591" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2592" spans="1:2" x14ac:dyDescent="0.25">
@@ -21675,7 +21671,7 @@
         <v>2591</v>
       </c>
       <c r="B2592" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2593" spans="1:2" x14ac:dyDescent="0.25">
@@ -21683,7 +21679,7 @@
         <v>2592</v>
       </c>
       <c r="B2593" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2594" spans="1:2" x14ac:dyDescent="0.25">
@@ -21691,7 +21687,7 @@
         <v>2593</v>
       </c>
       <c r="B2594" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2595" spans="1:2" x14ac:dyDescent="0.25">
@@ -26194,7 +26190,7 @@
         <v>3148</v>
       </c>
       <c r="B3149" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3150" spans="1:2" x14ac:dyDescent="0.25">
@@ -26202,7 +26198,7 @@
         <v>3149</v>
       </c>
       <c r="B3150" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3151" spans="1:2" x14ac:dyDescent="0.25">
@@ -26210,7 +26206,7 @@
         <v>3150</v>
       </c>
       <c r="B3151" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3152" spans="1:2" x14ac:dyDescent="0.25">
@@ -26218,7 +26214,7 @@
         <v>3151</v>
       </c>
       <c r="B3152" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3153" spans="1:2" x14ac:dyDescent="0.25">
@@ -26226,7 +26222,7 @@
         <v>3152</v>
       </c>
       <c r="B3153" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3154" spans="1:2" x14ac:dyDescent="0.25">
@@ -26234,7 +26230,7 @@
         <v>3153</v>
       </c>
       <c r="B3154" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3155" spans="1:2" x14ac:dyDescent="0.25">
@@ -26242,7 +26238,7 @@
         <v>3154</v>
       </c>
       <c r="B3155" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3156" spans="1:2" x14ac:dyDescent="0.25">
@@ -26250,7 +26246,7 @@
         <v>3155</v>
       </c>
       <c r="B3156" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3157" spans="1:2" x14ac:dyDescent="0.25">
@@ -26258,7 +26254,7 @@
         <v>3156</v>
       </c>
       <c r="B3157" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3158" spans="1:2" x14ac:dyDescent="0.25">
@@ -26266,7 +26262,7 @@
         <v>3157</v>
       </c>
       <c r="B3158" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3159" spans="1:2" x14ac:dyDescent="0.25">
@@ -26274,7 +26270,7 @@
         <v>3158</v>
       </c>
       <c r="B3159" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3160" spans="1:2" x14ac:dyDescent="0.25">
@@ -26282,7 +26278,7 @@
         <v>3159</v>
       </c>
       <c r="B3160" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3161" spans="1:2" x14ac:dyDescent="0.25">
@@ -26290,7 +26286,7 @@
         <v>3160</v>
       </c>
       <c r="B3161" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3162" spans="1:2" x14ac:dyDescent="0.25">
@@ -26298,7 +26294,7 @@
         <v>3161</v>
       </c>
       <c r="B3162" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3163" spans="1:2" x14ac:dyDescent="0.25">
@@ -26306,7 +26302,7 @@
         <v>3162</v>
       </c>
       <c r="B3163" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3164" spans="1:2" x14ac:dyDescent="0.25">
@@ -26314,7 +26310,7 @@
         <v>3163</v>
       </c>
       <c r="B3164" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3165" spans="1:2" x14ac:dyDescent="0.25">
@@ -26322,7 +26318,7 @@
         <v>3164</v>
       </c>
       <c r="B3165" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3166" spans="1:2" x14ac:dyDescent="0.25">
@@ -26330,7 +26326,7 @@
         <v>3165</v>
       </c>
       <c r="B3166" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3167" spans="1:2" x14ac:dyDescent="0.25">
@@ -26338,7 +26334,7 @@
         <v>3166</v>
       </c>
       <c r="B3167" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.25">
@@ -26346,7 +26342,7 @@
         <v>3167</v>
       </c>
       <c r="B3168" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3169" spans="1:2" x14ac:dyDescent="0.25">
@@ -26354,7 +26350,7 @@
         <v>3168</v>
       </c>
       <c r="B3169" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3170" spans="1:2" x14ac:dyDescent="0.25">
@@ -26362,7 +26358,7 @@
         <v>3169</v>
       </c>
       <c r="B3170" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3171" spans="1:2" x14ac:dyDescent="0.25">
@@ -26370,7 +26366,7 @@
         <v>3170</v>
       </c>
       <c r="B3171" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3172" spans="1:2" x14ac:dyDescent="0.25">
@@ -26378,7 +26374,7 @@
         <v>3171</v>
       </c>
       <c r="B3172" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3173" spans="1:2" x14ac:dyDescent="0.25">
@@ -26386,7 +26382,7 @@
         <v>3172</v>
       </c>
       <c r="B3173" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3174" spans="1:2" x14ac:dyDescent="0.25">
@@ -26394,7 +26390,7 @@
         <v>3173</v>
       </c>
       <c r="B3174" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3175" spans="1:2" x14ac:dyDescent="0.25">
@@ -26402,7 +26398,7 @@
         <v>3174</v>
       </c>
       <c r="B3175" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3176" spans="1:2" x14ac:dyDescent="0.25">
@@ -26410,7 +26406,7 @@
         <v>3175</v>
       </c>
       <c r="B3176" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3177" spans="1:2" x14ac:dyDescent="0.25">
@@ -26418,7 +26414,7 @@
         <v>3176</v>
       </c>
       <c r="B3177" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3178" spans="1:2" x14ac:dyDescent="0.25">
@@ -26426,7 +26422,7 @@
         <v>3177</v>
       </c>
       <c r="B3178" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3179" spans="1:2" x14ac:dyDescent="0.25">
